--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9949,6 +9949,112 @@
         <v>391.8485714285715</v>
       </c>
       <c r="G384" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>413.1126315789473</v>
+      </c>
+      <c r="C385" t="n">
+        <v>385.4266666666667</v>
+      </c>
+      <c r="D385" t="n">
+        <v>373.6666666666667</v>
+      </c>
+      <c r="E385" t="n">
+        <v>364.2066666666667</v>
+      </c>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>406.2005263157895</v>
+      </c>
+      <c r="C386" t="n">
+        <v>377.5166666666667</v>
+      </c>
+      <c r="D386" t="n">
+        <v>383.0866666666667</v>
+      </c>
+      <c r="E386" t="n">
+        <v>383.5066666666667</v>
+      </c>
+      <c r="F386" t="n">
+        <v>382.7042857142857</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>408.2831578947368</v>
+      </c>
+      <c r="C387" t="n">
+        <v>386.8866666666667</v>
+      </c>
+      <c r="D387" t="n">
+        <v>396.6666666666667</v>
+      </c>
+      <c r="E387" t="n">
+        <v>395.1866666666667</v>
+      </c>
+      <c r="F387" t="n">
+        <v>395.1228571428572</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>386.8036842105263</v>
+      </c>
+      <c r="C388" t="n">
+        <v>383.5633333333333</v>
+      </c>
+      <c r="D388" t="n">
+        <v>389.6533333333333</v>
+      </c>
+      <c r="E388" t="n">
+        <v>386.6933333333333</v>
+      </c>
+      <c r="F388" t="n">
+        <v>382.6514285714285</v>
+      </c>
+      <c r="G388" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -9965,7 +10071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B433"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14303,6 +14409,46 @@
       </c>
       <c r="B433" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -14471,28 +14617,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3030985630712614</v>
+        <v>0.3648962424452394</v>
       </c>
       <c r="J2" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K2" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08773347024249034</v>
+        <v>0.1165232401206747</v>
       </c>
       <c r="M2" t="n">
-        <v>5.682815506433903</v>
+        <v>5.860524700057804</v>
       </c>
       <c r="N2" t="n">
-        <v>53.27222693401227</v>
+        <v>58.16323856190905</v>
       </c>
       <c r="O2" t="n">
-        <v>7.298782565196217</v>
+        <v>7.626482712358892</v>
       </c>
       <c r="P2" t="n">
-        <v>383.2924645738748</v>
+        <v>382.7306596733746</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14548,28 +14694,28 @@
         <v>0.063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1657010856817152</v>
+        <v>0.1648363420513174</v>
       </c>
       <c r="J3" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K3" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02603997538806124</v>
+        <v>0.02631563539767312</v>
       </c>
       <c r="M3" t="n">
-        <v>5.852895138911107</v>
+        <v>5.816950579008904</v>
       </c>
       <c r="N3" t="n">
-        <v>57.47009674552416</v>
+        <v>56.94066273010313</v>
       </c>
       <c r="O3" t="n">
-        <v>7.580903425418646</v>
+        <v>7.545903705329345</v>
       </c>
       <c r="P3" t="n">
-        <v>379.5235091332309</v>
+        <v>379.5317225433196</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14625,28 +14771,28 @@
         <v>0.0619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2010359581263743</v>
+        <v>0.1931287383113854</v>
       </c>
       <c r="J4" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K4" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03440235265510461</v>
+        <v>0.03210170630996667</v>
       </c>
       <c r="M4" t="n">
-        <v>5.836513161500699</v>
+        <v>5.855056304031407</v>
       </c>
       <c r="N4" t="n">
-        <v>63.61719523232937</v>
+        <v>63.85982130714969</v>
       </c>
       <c r="O4" t="n">
-        <v>7.976038818381551</v>
+        <v>7.991234029056445</v>
       </c>
       <c r="P4" t="n">
-        <v>384.2421600519402</v>
+        <v>384.3164952567334</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -14702,28 +14848,28 @@
         <v>0.0629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1873690126175557</v>
+        <v>0.1736126407219929</v>
       </c>
       <c r="J5" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K5" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03616894248339264</v>
+        <v>0.03082927583172879</v>
       </c>
       <c r="M5" t="n">
-        <v>5.459520349369</v>
+        <v>5.503633663866734</v>
       </c>
       <c r="N5" t="n">
-        <v>52.85302680489126</v>
+        <v>54.19735734639102</v>
       </c>
       <c r="O5" t="n">
-        <v>7.270008721101458</v>
+        <v>7.361885447790601</v>
       </c>
       <c r="P5" t="n">
-        <v>383.8562671961849</v>
+        <v>383.9852789766165</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14779,28 +14925,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1152221731695798</v>
+        <v>0.1138458650647</v>
       </c>
       <c r="J6" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K6" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01311467370933039</v>
+        <v>0.0129661095812067</v>
       </c>
       <c r="M6" t="n">
-        <v>5.679686246190761</v>
+        <v>5.680381680946379</v>
       </c>
       <c r="N6" t="n">
-        <v>55.74813800606046</v>
+        <v>55.56236482525458</v>
       </c>
       <c r="O6" t="n">
-        <v>7.466467572156224</v>
+        <v>7.454016690701368</v>
       </c>
       <c r="P6" t="n">
-        <v>384.7067643409534</v>
+        <v>384.7199376031466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14837,7 +14983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27333,6 +27479,150 @@
         </is>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>-36.785468154187896,175.0978193717984</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-36.78559283556874,175.09870973660028</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-36.785501445866636,175.0995899942002</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-36.78532872875132,175.1004614939749</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>-36.7855292623178,175.09783434756386</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>-36.78566197115564,175.09873128918204</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>-36.785421304121684,175.09955522099204</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>-36.78516787187898,175.10037931208294</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>-36.78490353805393,175.10121128803993</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>-36.78551085031251,175.0978298353321</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>-36.78558007476446,175.09870575850505</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-36.78530577066945,175.0995050915966</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-36.785070524265414,175.10032957730851</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>-36.784800593845766,175.10115674790367</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>-36.78570074475087,175.0978763728963</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>-36.78560912161776,175.09871481366912</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-36.78536543743376,175.09953098069028</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>-36.78514131242994,175.1003657428792</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>-36.784903976215105,175.10121152017936</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -14462,7 +14462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14553,35 +14553,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -14640,27 +14645,28 @@
       <c r="P2" t="n">
         <v>382.7306596733746</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.09871446733484 -36.789120370150826, 175.09672259898304 -36.78099250981126)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.0987144673348</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.78912037015083</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.096722598983</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.78099250981126</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.0977185331589</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.78505643998105</v>
       </c>
     </row>
@@ -14717,27 +14723,28 @@
       <c r="P3" t="n">
         <v>379.5317225433196</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.09975996699887 -36.78896156434974, 175.0972549196301 -36.78092580448161)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.0997599669989</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.78896156434974</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.0972549196301</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.78092580448161</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.0985074433145</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.78494368441568</v>
       </c>
     </row>
@@ -14794,27 +14801,28 @@
       <c r="P4" t="n">
         <v>384.3164952567334</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.10096941743188 -36.788680447594004, 175.09757536184168 -36.78085801517893)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.1009694174319</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.788680447594</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.0975753618417</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.78085801517893</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.0992723896368</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.78476923138646</v>
       </c>
     </row>
@@ -14871,27 +14879,28 @@
       <c r="P5" t="n">
         <v>383.9852789766165</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.10201240002604 -36.788364215046116, 175.09809708029596 -36.780700488723305)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.102012400026</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.78836421504612</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.098097080296</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.7807004887233</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.100054740161</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.78453235188471</v>
       </c>
     </row>
@@ -14948,27 +14957,28 @@
       <c r="P6" t="n">
         <v>384.7199376031466</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.10289213086608 -36.788075964057796, 175.09885380847493 -36.780453518653665)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.1028921308661</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.7880759640578</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.0988538084749</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.78045351865367</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.1008729696705</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.78426474135573</v>
       </c>
     </row>

--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G388"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10055,6 +10055,110 @@
         <v>382.6514285714285</v>
       </c>
       <c r="G388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>393.33</v>
+      </c>
+      <c r="C389" t="n">
+        <v>387.29</v>
+      </c>
+      <c r="D389" t="n">
+        <v>394.17</v>
+      </c>
+      <c r="E389" t="n">
+        <v>389.51</v>
+      </c>
+      <c r="F389" t="n">
+        <v>389.8071428571428</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="n">
+        <v>395.0966666666667</v>
+      </c>
+      <c r="D390" t="n">
+        <v>398.2266666666667</v>
+      </c>
+      <c r="E390" t="n">
+        <v>396.6966666666667</v>
+      </c>
+      <c r="F390" t="n">
+        <v>392.6657142857143</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>367.6436842105263</v>
+      </c>
+      <c r="C391" t="n">
+        <v>379.1366666666667</v>
+      </c>
+      <c r="D391" t="n">
+        <v>387.1266666666667</v>
+      </c>
+      <c r="E391" t="n">
+        <v>387.4166666666667</v>
+      </c>
+      <c r="F391" t="n">
+        <v>387.23</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="n">
+        <v>373.46</v>
+      </c>
+      <c r="D392" t="n">
+        <v>373.51</v>
+      </c>
+      <c r="E392" t="n">
+        <v>370.76</v>
+      </c>
+      <c r="F392" t="n">
+        <v>371.2357142857143</v>
+      </c>
+      <c r="G392" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10071,7 +10175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14449,6 +14553,46 @@
       </c>
       <c r="B437" t="n">
         <v>-0.1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -14622,28 +14766,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3648962424452394</v>
+        <v>0.3368044602223473</v>
       </c>
       <c r="J2" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K2" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1165232401206747</v>
+        <v>0.09793973232125353</v>
       </c>
       <c r="M2" t="n">
-        <v>5.860524700057804</v>
+        <v>5.966585034346463</v>
       </c>
       <c r="N2" t="n">
-        <v>58.16323856190905</v>
+        <v>61.12119253827363</v>
       </c>
       <c r="O2" t="n">
-        <v>7.626482712358892</v>
+        <v>7.818004383362395</v>
       </c>
       <c r="P2" t="n">
-        <v>382.7306596733746</v>
+        <v>382.9898927865742</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14700,28 +14844,28 @@
         <v>0.063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1648363420513174</v>
+        <v>0.1647378315054131</v>
       </c>
       <c r="J3" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K3" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02631563539767312</v>
+        <v>0.02654068915203311</v>
       </c>
       <c r="M3" t="n">
-        <v>5.816950579008904</v>
+        <v>5.836181561899568</v>
       </c>
       <c r="N3" t="n">
-        <v>56.94066273010313</v>
+        <v>57.06104496144604</v>
       </c>
       <c r="O3" t="n">
-        <v>7.545903705329345</v>
+        <v>7.553876154759624</v>
       </c>
       <c r="P3" t="n">
-        <v>379.5317225433196</v>
+        <v>379.5329777709635</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14778,28 +14922,28 @@
         <v>0.0619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1931287383113854</v>
+        <v>0.190828609771412</v>
       </c>
       <c r="J4" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K4" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03210170630996667</v>
+        <v>0.03160389995084523</v>
       </c>
       <c r="M4" t="n">
-        <v>5.855056304031407</v>
+        <v>5.88004792580236</v>
       </c>
       <c r="N4" t="n">
-        <v>63.85982130714969</v>
+        <v>64.15779785552589</v>
       </c>
       <c r="O4" t="n">
-        <v>7.991234029056445</v>
+        <v>8.009856294311771</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3164952567334</v>
+        <v>384.3388643636136</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14856,28 +15000,28 @@
         <v>0.0629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1736126407219929</v>
+        <v>0.1684080066569561</v>
       </c>
       <c r="J5" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03082927583172879</v>
+        <v>0.02915789533842228</v>
       </c>
       <c r="M5" t="n">
-        <v>5.503633663866734</v>
+        <v>5.520700791313752</v>
       </c>
       <c r="N5" t="n">
-        <v>54.19735734639102</v>
+        <v>54.68513608137348</v>
       </c>
       <c r="O5" t="n">
-        <v>7.361885447790601</v>
+        <v>7.394939897076479</v>
       </c>
       <c r="P5" t="n">
-        <v>383.9852789766165</v>
+        <v>384.0351800113552</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14934,28 +15078,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1138458650647</v>
+        <v>0.1084567544699646</v>
       </c>
       <c r="J6" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K6" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0129661095812067</v>
+        <v>0.01187745886781266</v>
       </c>
       <c r="M6" t="n">
-        <v>5.680381680946379</v>
+        <v>5.682652296399256</v>
       </c>
       <c r="N6" t="n">
-        <v>55.56236482525458</v>
+        <v>55.78859844782615</v>
       </c>
       <c r="O6" t="n">
-        <v>7.454016690701368</v>
+        <v>7.469176557548105</v>
       </c>
       <c r="P6" t="n">
-        <v>384.7199376031466</v>
+        <v>384.7723843080919</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14993,7 +15137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G388"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27633,6 +27777,146 @@
         </is>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>-36.785643047294265,175.0978622329124</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>-36.7855765495194,175.09870465953378</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>-36.7853270113578,175.0995143078138</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>-36.78511783676468,175.10035374918738</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>-36.78484465866021,175.10118009354795</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>-36.785508317087256,175.09868338855753</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>-36.78529249878361,175.09949933300163</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>-36.785057939084,175.10032314756555</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>-36.78482096242505,175.10116753922196</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>-36.78587013329957,175.09791788528668</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>-36.785647811908234,175.0987268751227</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>-36.785386933347944,175.09954030766497</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>-36.78513528376812,175.10036266284163</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>-36.78486602198124,175.10119141189773</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-36.78569742754158,175.09874234250282</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-36.785502778726396,175.09959057252382</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-36.78527410965558,175.10043358899532</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>-36.78499860717407,175.1012616560814</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10159,6 +10159,29 @@
         <v>371.2357142857143</v>
       </c>
       <c r="G392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="n">
+        <v>402.88</v>
+      </c>
+      <c r="D393" t="n">
+        <v>393.74</v>
+      </c>
+      <c r="E393" t="n">
+        <v>390.72</v>
+      </c>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10175,7 +10198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B441"/>
+  <dimension ref="A1:B442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14593,6 +14616,16 @@
       </c>
       <c r="B441" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -14769,7 +14802,7 @@
         <v>0.3368044602223473</v>
       </c>
       <c r="J2" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K2" t="n">
         <v>160</v>
@@ -14844,28 +14877,28 @@
         <v>0.063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1647378315054131</v>
+        <v>0.1752048612013631</v>
       </c>
       <c r="J3" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02654068915203311</v>
+        <v>0.02955706094679011</v>
       </c>
       <c r="M3" t="n">
-        <v>5.836181561899568</v>
+        <v>5.872958042866206</v>
       </c>
       <c r="N3" t="n">
-        <v>57.06104496144604</v>
+        <v>57.9506899892363</v>
       </c>
       <c r="O3" t="n">
-        <v>7.553876154759624</v>
+        <v>7.612535056683568</v>
       </c>
       <c r="P3" t="n">
-        <v>379.5329777709635</v>
+        <v>379.4313493448559</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14922,28 +14955,28 @@
         <v>0.0619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.190828609771412</v>
+        <v>0.1932873540143852</v>
       </c>
       <c r="J4" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K4" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03160389995084523</v>
+        <v>0.03255816691917879</v>
       </c>
       <c r="M4" t="n">
-        <v>5.88004792580236</v>
+        <v>5.875245854232944</v>
       </c>
       <c r="N4" t="n">
-        <v>64.15779785552589</v>
+        <v>64.02894440530267</v>
       </c>
       <c r="O4" t="n">
-        <v>8.009856294311771</v>
+        <v>8.001808820841864</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3388643636136</v>
+        <v>384.3151890189914</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15000,28 +15033,28 @@
         <v>0.0629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1684080066569561</v>
+        <v>0.1696929522028841</v>
       </c>
       <c r="J5" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02915789533842228</v>
+        <v>0.02975655600662941</v>
       </c>
       <c r="M5" t="n">
-        <v>5.520700791313752</v>
+        <v>5.511465125696288</v>
       </c>
       <c r="N5" t="n">
-        <v>54.68513608137348</v>
+        <v>54.54062823602487</v>
       </c>
       <c r="O5" t="n">
-        <v>7.394939897076479</v>
+        <v>7.38516270883891</v>
       </c>
       <c r="P5" t="n">
-        <v>384.0351800113552</v>
+        <v>384.0228494883999</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15081,7 +15114,7 @@
         <v>0.1084567544699646</v>
       </c>
       <c r="J6" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K6" t="n">
         <v>338</v>
@@ -15137,7 +15170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27917,6 +27950,35 @@
         </is>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-36.785440288589214,175.0986621811984</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-36.78533066963378,175.0995158951201</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-36.785107751951784,175.10034859687002</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10184,6 +10184,33 @@
       <c r="G393" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>391.5684210526316</v>
+      </c>
+      <c r="C394" t="n">
+        <v>376.0233333333333</v>
+      </c>
+      <c r="D394" t="n">
+        <v>378.9933333333333</v>
+      </c>
+      <c r="E394" t="n">
+        <v>384.2033333333333</v>
+      </c>
+      <c r="F394" t="n">
+        <v>401.9885714285714</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B442"/>
+  <dimension ref="A1:B443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14626,6 +14653,16 @@
       </c>
       <c r="B442" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -14799,28 +14836,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3368044602223473</v>
+        <v>0.3366346858658464</v>
       </c>
       <c r="J2" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K2" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09793973232125353</v>
+        <v>0.09908754107257123</v>
       </c>
       <c r="M2" t="n">
-        <v>5.966585034346463</v>
+        <v>5.930521372279248</v>
       </c>
       <c r="N2" t="n">
-        <v>61.12119253827363</v>
+        <v>60.74167889309337</v>
       </c>
       <c r="O2" t="n">
-        <v>7.818004383362395</v>
+        <v>7.793694816522737</v>
       </c>
       <c r="P2" t="n">
-        <v>382.9898927865742</v>
+        <v>382.9914723893885</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14877,28 +14914,28 @@
         <v>0.063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1752048612013631</v>
+        <v>0.1708620220139179</v>
       </c>
       <c r="J3" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K3" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02955706094679011</v>
+        <v>0.02822728074603875</v>
       </c>
       <c r="M3" t="n">
-        <v>5.872958042866206</v>
+        <v>5.879497513307929</v>
       </c>
       <c r="N3" t="n">
-        <v>57.9506899892363</v>
+        <v>57.96409531303833</v>
       </c>
       <c r="O3" t="n">
-        <v>7.612535056683568</v>
+        <v>7.613415482754</v>
       </c>
       <c r="P3" t="n">
-        <v>379.4313493448559</v>
+        <v>379.4736559725364</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14955,28 +14992,28 @@
         <v>0.0619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1932873540143852</v>
+        <v>0.1876283113778284</v>
       </c>
       <c r="J4" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K4" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03255816691917879</v>
+        <v>0.0307744509561958</v>
       </c>
       <c r="M4" t="n">
-        <v>5.875245854232944</v>
+        <v>5.889926418058193</v>
       </c>
       <c r="N4" t="n">
-        <v>64.02894440530267</v>
+        <v>64.14965992339476</v>
       </c>
       <c r="O4" t="n">
-        <v>8.001808820841864</v>
+        <v>8.009348283312118</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3151890189914</v>
+        <v>384.3698594130304</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15033,28 +15070,28 @@
         <v>0.0629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1696929522028841</v>
+        <v>0.1673824640124404</v>
       </c>
       <c r="J5" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02975655600662941</v>
+        <v>0.02911848914656567</v>
       </c>
       <c r="M5" t="n">
-        <v>5.511465125696288</v>
+        <v>5.50737443821463</v>
       </c>
       <c r="N5" t="n">
-        <v>54.54062823602487</v>
+        <v>54.43258168506866</v>
       </c>
       <c r="O5" t="n">
-        <v>7.38516270883891</v>
+        <v>7.37784397267038</v>
       </c>
       <c r="P5" t="n">
-        <v>384.0228494883999</v>
+        <v>384.0450951026775</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15111,28 +15148,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1084567544699646</v>
+        <v>0.1165093770180028</v>
       </c>
       <c r="J6" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K6" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01187745886781266</v>
+        <v>0.01361757271633113</v>
       </c>
       <c r="M6" t="n">
-        <v>5.682652296399256</v>
+        <v>5.710378752458102</v>
       </c>
       <c r="N6" t="n">
-        <v>55.78859844782615</v>
+        <v>56.23090542703155</v>
       </c>
       <c r="O6" t="n">
-        <v>7.469176557548105</v>
+        <v>7.498726920419996</v>
       </c>
       <c r="P6" t="n">
-        <v>384.7723843080919</v>
+        <v>384.6936620470596</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15170,7 +15207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27979,6 +28016,43 @@
         </is>
       </c>
     </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-36.78565862095481,175.09786604956545</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-36.78567502330118,175.09873535811067</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-36.78545612863247,175.09957033120904</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-36.7851620654724,175.100376345593</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-36.78474368023927,175.10112659498418</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10209,6 +10209,52 @@
         <v>401.9885714285714</v>
       </c>
       <c r="G394" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="n">
+        <v>392.63</v>
+      </c>
+      <c r="D395" t="n">
+        <v>395.22</v>
+      </c>
+      <c r="E395" t="n">
+        <v>388.54</v>
+      </c>
+      <c r="F395" t="n">
+        <v>390.9114285714285</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr"/>
+      <c r="C396" t="n">
+        <v>425.51</v>
+      </c>
+      <c r="D396" t="n">
+        <v>435.05</v>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10225,7 +10271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B443"/>
+  <dimension ref="A1:B445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14663,6 +14709,26 @@
       </c>
       <c r="B443" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>-1.05</v>
       </c>
     </row>
   </sheetData>
@@ -14839,7 +14905,7 @@
         <v>0.3366346858658464</v>
       </c>
       <c r="J2" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K2" t="n">
         <v>161</v>
@@ -14914,28 +14980,28 @@
         <v>0.063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1708620220139179</v>
+        <v>0.19800010214769</v>
       </c>
       <c r="J3" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K3" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02822728074603875</v>
+        <v>0.03495088424552861</v>
       </c>
       <c r="M3" t="n">
-        <v>5.879497513307929</v>
+        <v>5.987016740157473</v>
       </c>
       <c r="N3" t="n">
-        <v>57.96409531303833</v>
+        <v>62.80233727521615</v>
       </c>
       <c r="O3" t="n">
-        <v>7.613415482754</v>
+        <v>7.924792569854189</v>
       </c>
       <c r="P3" t="n">
-        <v>379.4736559725364</v>
+        <v>379.208749882677</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14992,28 +15058,28 @@
         <v>0.0619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1876283113778284</v>
+        <v>0.2156257730069413</v>
       </c>
       <c r="J4" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0307744509561958</v>
+        <v>0.03729660739968332</v>
       </c>
       <c r="M4" t="n">
-        <v>5.889926418058193</v>
+        <v>6.000351791594331</v>
       </c>
       <c r="N4" t="n">
-        <v>64.14965992339476</v>
+        <v>69.86422294940047</v>
       </c>
       <c r="O4" t="n">
-        <v>8.009348283312118</v>
+        <v>8.35848209601483</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3698594130304</v>
+        <v>384.0988253409504</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15070,28 +15136,28 @@
         <v>0.0629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1673824640124404</v>
+        <v>0.1674684448385481</v>
       </c>
       <c r="J5" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K5" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02911848914656567</v>
+        <v>0.02931728756058061</v>
       </c>
       <c r="M5" t="n">
-        <v>5.50737443821463</v>
+        <v>5.491784512001153</v>
       </c>
       <c r="N5" t="n">
-        <v>54.43258168506866</v>
+        <v>54.27395811515388</v>
       </c>
       <c r="O5" t="n">
-        <v>7.37784397267038</v>
+        <v>7.367086134636535</v>
       </c>
       <c r="P5" t="n">
-        <v>384.0450951026775</v>
+        <v>384.0442663538177</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15148,28 +15214,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1165093770180028</v>
+        <v>0.1182847750223623</v>
       </c>
       <c r="J6" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01361757271633113</v>
+        <v>0.01410633606233391</v>
       </c>
       <c r="M6" t="n">
-        <v>5.710378752458102</v>
+        <v>5.703344554922016</v>
       </c>
       <c r="N6" t="n">
-        <v>56.23090542703155</v>
+        <v>56.09534782366818</v>
       </c>
       <c r="O6" t="n">
-        <v>7.498726920419996</v>
+        <v>7.489682758546465</v>
       </c>
       <c r="P6" t="n">
-        <v>384.6936620470596</v>
+        <v>384.6762868907257</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15207,7 +15273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28053,6 +28119,64 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-36.78552987643875,175.0986901095277</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-36.785318078358145,175.09951043183395</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-36.78512592128389,175.1003578795585</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-36.78483550464252,175.10117524372492</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr"/>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-36.78524249606295,175.0986005211441</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-36.784979219781015,175.09936340369634</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G396"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10255,6 +10255,52 @@
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="n">
+        <v>392.54</v>
+      </c>
+      <c r="D397" t="n">
+        <v>397.8</v>
+      </c>
+      <c r="E397" t="n">
+        <v>384.47</v>
+      </c>
+      <c r="F397" t="n">
+        <v>382.8728571428572</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="n">
+        <v>348.0433333333333</v>
+      </c>
+      <c r="F398" t="n">
+        <v>353.5485714285714</v>
+      </c>
+      <c r="G398" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10271,7 +10317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B445"/>
+  <dimension ref="A1:B447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14729,6 +14775,26 @@
       </c>
       <c r="B445" t="n">
         <v>-1.05</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -14905,7 +14971,7 @@
         <v>0.3366346858658464</v>
       </c>
       <c r="J2" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K2" t="n">
         <v>161</v>
@@ -14980,28 +15046,28 @@
         <v>0.063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.19800010214769</v>
+        <v>0.2023890972481174</v>
       </c>
       <c r="J3" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K3" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03495088424552861</v>
+        <v>0.03655702891593371</v>
       </c>
       <c r="M3" t="n">
-        <v>5.987016740157473</v>
+        <v>5.992641377006598</v>
       </c>
       <c r="N3" t="n">
-        <v>62.80233727521615</v>
+        <v>62.81311152429337</v>
       </c>
       <c r="O3" t="n">
-        <v>7.924792569854189</v>
+        <v>7.925472321842615</v>
       </c>
       <c r="P3" t="n">
-        <v>379.208749882677</v>
+        <v>379.1658510137208</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15058,28 +15124,28 @@
         <v>0.0619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2156257730069413</v>
+        <v>0.219977491043689</v>
       </c>
       <c r="J4" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K4" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03729660739968332</v>
+        <v>0.03887806889375134</v>
       </c>
       <c r="M4" t="n">
-        <v>6.000351791594331</v>
+        <v>6.006586374387594</v>
       </c>
       <c r="N4" t="n">
-        <v>69.86422294940047</v>
+        <v>69.85056633412498</v>
       </c>
       <c r="O4" t="n">
-        <v>8.35848209601483</v>
+        <v>8.357665124550335</v>
       </c>
       <c r="P4" t="n">
-        <v>384.0988253409504</v>
+        <v>384.0566459946076</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15136,28 +15202,28 @@
         <v>0.0629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1674684448385481</v>
+        <v>0.1436384818582874</v>
       </c>
       <c r="J5" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K5" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02931728756058061</v>
+        <v>0.0202588636711275</v>
       </c>
       <c r="M5" t="n">
-        <v>5.491784512001153</v>
+        <v>5.586419619684603</v>
       </c>
       <c r="N5" t="n">
-        <v>54.27395811515388</v>
+        <v>58.6735067741756</v>
       </c>
       <c r="O5" t="n">
-        <v>7.367086134636535</v>
+        <v>7.659863365241941</v>
       </c>
       <c r="P5" t="n">
-        <v>384.0442663538177</v>
+        <v>384.2747001372853</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15214,28 +15280,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1182847750223623</v>
+        <v>0.0968584550324354</v>
       </c>
       <c r="J6" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K6" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01410633606233391</v>
+        <v>0.009061263146250331</v>
       </c>
       <c r="M6" t="n">
-        <v>5.703344554922016</v>
+        <v>5.780194726989453</v>
       </c>
       <c r="N6" t="n">
-        <v>56.09534782366818</v>
+        <v>59.21727420134667</v>
       </c>
       <c r="O6" t="n">
-        <v>7.489682758546465</v>
+        <v>7.695276096498856</v>
       </c>
       <c r="P6" t="n">
-        <v>384.6762868907257</v>
+        <v>384.8866365619331</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15273,7 +15339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G396"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28177,6 +28243,64 @@
         </is>
       </c>
     </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-36.78553066306374,175.09869035475236</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-36.78529612870115,175.09950090800174</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-36.785159842924415,175.1003752100946</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-36.78490214067504,175.1012105477035</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-36.78546344285393,175.1005303198103</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-36.78514522530509,175.10133933529852</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10293,7 +10293,9 @@
       </c>
       <c r="B398" t="inlineStr"/>
       <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
+      <c r="D398" t="n">
+        <v>356.1633333333333</v>
+      </c>
       <c r="E398" t="n">
         <v>348.0433333333333</v>
       </c>
@@ -10303,6 +10305,85 @@
       <c r="G398" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>394.2652631578948</v>
+      </c>
+      <c r="C399" t="n">
+        <v>382.73</v>
+      </c>
+      <c r="D399" t="n">
+        <v>389.06</v>
+      </c>
+      <c r="E399" t="n">
+        <v>391.37</v>
+      </c>
+      <c r="F399" t="n">
+        <v>389.8671428571428</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="n">
+        <v>390.8833333333333</v>
+      </c>
+      <c r="D400" t="n">
+        <v>394.8433333333333</v>
+      </c>
+      <c r="E400" t="n">
+        <v>395.2633333333333</v>
+      </c>
+      <c r="F400" t="n">
+        <v>391.5728571428572</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>383.8031578947368</v>
+      </c>
+      <c r="C401" t="n">
+        <v>371.77</v>
+      </c>
+      <c r="D401" t="n">
+        <v>374.89</v>
+      </c>
+      <c r="E401" t="n">
+        <v>371.9</v>
+      </c>
+      <c r="F401" t="n">
+        <v>375.1828571428572</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B447"/>
+  <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14795,6 +14876,36 @@
       </c>
       <c r="B447" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -14968,28 +15079,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3366346858658464</v>
+        <v>0.3301961878575565</v>
       </c>
       <c r="J2" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09908754107257123</v>
+        <v>0.09748756181010854</v>
       </c>
       <c r="M2" t="n">
-        <v>5.930521372279248</v>
+        <v>5.926847235309516</v>
       </c>
       <c r="N2" t="n">
-        <v>60.74167889309337</v>
+        <v>60.42102017407042</v>
       </c>
       <c r="O2" t="n">
-        <v>7.793694816522737</v>
+        <v>7.773095919520769</v>
       </c>
       <c r="P2" t="n">
-        <v>382.9914723893885</v>
+        <v>383.0520017138304</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15046,28 +15157,28 @@
         <v>0.063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2023890972481174</v>
+        <v>0.1981908522997197</v>
       </c>
       <c r="J3" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03655702891593371</v>
+        <v>0.03538146509564888</v>
       </c>
       <c r="M3" t="n">
-        <v>5.992641377006598</v>
+        <v>6.001315467180673</v>
       </c>
       <c r="N3" t="n">
-        <v>62.81311152429337</v>
+        <v>62.85924744129914</v>
       </c>
       <c r="O3" t="n">
-        <v>7.925472321842615</v>
+        <v>7.928382397519631</v>
       </c>
       <c r="P3" t="n">
-        <v>379.1658510137208</v>
+        <v>379.2071768216102</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15124,28 +15235,28 @@
         <v>0.0619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.219977491043689</v>
+        <v>0.1969579351011081</v>
       </c>
       <c r="J4" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03887806889375134</v>
+        <v>0.03047332094333111</v>
       </c>
       <c r="M4" t="n">
-        <v>6.006586374387594</v>
+        <v>6.093193693757056</v>
       </c>
       <c r="N4" t="n">
-        <v>69.85056633412498</v>
+        <v>72.92364022557076</v>
       </c>
       <c r="O4" t="n">
-        <v>8.357665124550335</v>
+        <v>8.539533958335827</v>
       </c>
       <c r="P4" t="n">
-        <v>384.0566459946076</v>
+        <v>384.2803107538366</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15202,28 +15313,28 @@
         <v>0.0629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1436384818582874</v>
+        <v>0.1406987123165288</v>
       </c>
       <c r="J5" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0202588636711275</v>
+        <v>0.01948773710059382</v>
       </c>
       <c r="M5" t="n">
-        <v>5.586419619684603</v>
+        <v>5.615288001674857</v>
       </c>
       <c r="N5" t="n">
-        <v>58.6735067741756</v>
+        <v>59.09696253697399</v>
       </c>
       <c r="O5" t="n">
-        <v>7.659863365241941</v>
+        <v>7.687454880321184</v>
       </c>
       <c r="P5" t="n">
-        <v>384.2747001372853</v>
+        <v>384.3033685456367</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15280,28 +15391,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0968584550324354</v>
+        <v>0.09382130954723497</v>
       </c>
       <c r="J6" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009061263146250331</v>
+        <v>0.008585460813200441</v>
       </c>
       <c r="M6" t="n">
-        <v>5.780194726989453</v>
+        <v>5.784901064893287</v>
       </c>
       <c r="N6" t="n">
-        <v>59.21727420134667</v>
+        <v>59.20283122874594</v>
       </c>
       <c r="O6" t="n">
-        <v>7.695276096498856</v>
+        <v>7.694337608186031</v>
       </c>
       <c r="P6" t="n">
-        <v>384.8866365619331</v>
+        <v>384.916673514416</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15339,7 +15450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28284,7 +28395,11 @@
       </c>
       <c r="B398" t="inlineStr"/>
       <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-36.78565035747373,175.0996546066159</t>
+        </is>
+      </c>
       <c r="E398" t="inlineStr">
         <is>
           <t>-36.78546344285393,175.1005303198103</t>
@@ -28298,6 +28413,113 @@
       <c r="G398" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-36.785634778876265,175.09786020656338</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-36.78561640518163,175.0987170842731</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-36.78537048528704,175.09953317092922</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-36.785102334490205,175.10034582909682</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-36.78484416128797,175.1011798300388</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-36.78554514279002,175.09869486870363</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-36.78532128289454,175.0995118222647</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-36.7850698852827,175.1003292508535</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-36.78483002170555,175.10117233885092</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-36.78572727162087,175.09788287387573</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-36.78571219860741,175.09874694729953</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-36.78549103821687,175.09958547835464</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-36.78526460826573,175.10042873472537</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-36.78496588719963,175.10124432087764</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10384,6 +10384,31 @@
       <c r="G401" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="n">
+        <v>389.6833333333333</v>
+      </c>
+      <c r="D402" t="n">
+        <v>389.7533333333333</v>
+      </c>
+      <c r="E402" t="n">
+        <v>390.8233333333333</v>
+      </c>
+      <c r="F402" t="n">
+        <v>393.16</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14906,6 +14931,16 @@
       </c>
       <c r="B450" t="n">
         <v>-0.9</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -15082,7 +15117,7 @@
         <v>0.3301961878575565</v>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K2" t="n">
         <v>163</v>
@@ -15157,28 +15192,28 @@
         <v>0.063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1981908522997197</v>
+        <v>0.2009868536840943</v>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K3" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03538146509564888</v>
+        <v>0.0365096445485793</v>
       </c>
       <c r="M3" t="n">
-        <v>6.001315467180673</v>
+        <v>5.998790751411151</v>
       </c>
       <c r="N3" t="n">
-        <v>62.85924744129914</v>
+        <v>62.7587467021195</v>
       </c>
       <c r="O3" t="n">
-        <v>7.928382397519631</v>
+        <v>7.922041826582305</v>
       </c>
       <c r="P3" t="n">
-        <v>379.2071768216102</v>
+        <v>379.1795139449779</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15235,28 +15270,28 @@
         <v>0.0619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1969579351011081</v>
+        <v>0.1971227428817223</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K4" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03047332094333111</v>
+        <v>0.03069513549967007</v>
       </c>
       <c r="M4" t="n">
-        <v>6.093193693757056</v>
+        <v>6.076800571663045</v>
       </c>
       <c r="N4" t="n">
-        <v>72.92364022557076</v>
+        <v>72.71733380413558</v>
       </c>
       <c r="O4" t="n">
-        <v>8.539533958335827</v>
+        <v>8.527445913292889</v>
       </c>
       <c r="P4" t="n">
-        <v>384.2803107538366</v>
+        <v>384.2786938638231</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15313,28 +15348,28 @@
         <v>0.0629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1406987123165288</v>
+        <v>0.1422017510167983</v>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K5" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01948773710059382</v>
+        <v>0.02000530162043157</v>
       </c>
       <c r="M5" t="n">
-        <v>5.615288001674857</v>
+        <v>5.607080888209828</v>
       </c>
       <c r="N5" t="n">
-        <v>59.09696253697399</v>
+        <v>58.9504470768002</v>
       </c>
       <c r="O5" t="n">
-        <v>7.687454880321184</v>
+        <v>7.6779194497468</v>
       </c>
       <c r="P5" t="n">
-        <v>384.3033685456367</v>
+        <v>384.2886712394052</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15391,28 +15426,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09382130954723497</v>
+        <v>0.09694674542874787</v>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K6" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008585460813200441</v>
+        <v>0.009200880875423034</v>
       </c>
       <c r="M6" t="n">
-        <v>5.784901064893287</v>
+        <v>5.784419807579157</v>
       </c>
       <c r="N6" t="n">
-        <v>59.20283122874594</v>
+        <v>59.12761796932827</v>
       </c>
       <c r="O6" t="n">
-        <v>7.694337608186031</v>
+        <v>7.68944848278004</v>
       </c>
       <c r="P6" t="n">
-        <v>384.916673514416</v>
+        <v>384.8856501781361</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15450,7 +15485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28523,6 +28558,39 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-36.785555631122776,175.0986981383677</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-36.78536458667194,175.09953061154891</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-36.78510689071432,175.10034815686504</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-36.784816865024894,175.10116536840977</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0172/nzd0172.xlsx
+++ b/data/nzd0172/nzd0172.xlsx
@@ -15105,10 +15105,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.154</v>
+        <v>0.1392</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
@@ -15183,13 +15183,13 @@
         <v>0.7581801445472618</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0577</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.063</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="I3" t="n">
         <v>0.2010255058776978</v>
@@ -15261,13 +15261,13 @@
         <v>0.5057364684915036</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0548</v>
+        <v>0.0682</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0619</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>0.1971604399479258</v>
@@ -15339,13 +15339,13 @@
         <v>0.2530583043061139</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0582</v>
+        <v>0.073</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0629</v>
+        <v>0.1019</v>
       </c>
       <c r="I5" t="n">
         <v>0.1422412271876978</v>
@@ -15417,13 +15417,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0654</v>
+        <v>0.1077</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.1623</v>
       </c>
       <c r="I6" t="n">
         <v>0.0969347117958887</v>
